--- a/eq_log/eq_file/80001110.xlsx
+++ b/eq_log/eq_file/80001110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>13/02/2018</t>
+  </si>
+  <si>
+    <t>Гострини на розрізі контакту</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>**</t>
@@ -697,6 +709,34 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="H28" s="1" t="n"/>
